--- a/IPhone 11.xlsx
+++ b/IPhone 11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gusta\OneDrive\Área de Trabalho\Insper\2º SEMESTRE\CIÊNCIA DOS DADOS\Projeto 1\Arquivos bb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="182" documentId="11_232EF211ACA39AF7DE268D0EBF3BF645E12C8FCE" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C49007ED-4534-4DAA-8CB8-D59EE32778D3}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE0362-91F6-4FD9-935A-6537EE2064E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1349,268 +1349,6 @@
   </si>
   <si>
     <t>Relevância</t>
-  </si>
-  <si>
-    <t>11, algum sugar daddy</t>
-  </si>
-  <si>
-    <t>11 _xD83E_</t>
-  </si>
-  <si>
-    <t>11, n sou exigent</t>
-  </si>
-  <si>
-    <t>2rhgvpt via @youtub</t>
-  </si>
-  <si>
-    <t>11 nas mãos! deus é pai não é padrast</t>
-  </si>
-  <si>
-    <t>11 pro max e minha mansão em miami te incomodam 🥰_xD83D_</t>
-  </si>
-  <si>
-    <t>11 ma</t>
-  </si>
-  <si>
-    <t>11 eu choro toda vez q abro a minh</t>
-  </si>
-  <si>
-    <t>500 n</t>
-  </si>
-  <si>
-    <t>11 por cinquentão?</t>
-  </si>
-  <si>
-    <t>9 via @youtub</t>
-  </si>
-  <si>
-    <t>11 os filtros do i</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 ja, </t>
-  </si>
-  <si>
-    <t>11? eu nã</t>
-  </si>
-  <si>
-    <t>9jhfwk</t>
-  </si>
-  <si>
-    <t>11 amig</t>
-  </si>
-  <si>
-    <t>11, o meu tbm é e tem essa mesma qualidade quando estou no sol, e provavelmente ela editou essa foto, colocou saturação no mínim</t>
-  </si>
-  <si>
-    <t>11 vai nem entender nada , ainda vao dizer q foi sorte kkkk</t>
-  </si>
-  <si>
-    <t>11 quase veio kkkkk</t>
-  </si>
-  <si>
-    <t>11 vem amg 🤩😂😂_xD83D_</t>
-  </si>
-  <si>
-    <t>11 demora mt p carregar q iss</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11, e eu to com o </t>
-  </si>
-  <si>
-    <t>11? pensei alto kkkkkkk</t>
-  </si>
-  <si>
-    <t>8 mil reais igual aqui não, lá todo mundo tem o melh</t>
-  </si>
-  <si>
-    <t>11 foi feito mesmo p</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 n </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 pro branco </t>
-  </si>
-  <si>
-    <t>11???</t>
-  </si>
-  <si>
-    <t>11 e tudo nmrl 😍_xD83D_</t>
-  </si>
-  <si>
-    <t>11” eu to apavorada kkkkk</t>
-  </si>
-  <si>
-    <t>11... se ganhar o iphone tenho de o ir buscar a matosinhos e se ganhar o de material escolar serei uma criança feliz com o meu ci finalmente e uma mala da bimba y lola _xD83E_</t>
-  </si>
-  <si>
-    <t>91s: vamos harry styles aparece, o</t>
-  </si>
-  <si>
-    <t>11 chegou _xD83E_</t>
-  </si>
-  <si>
-    <t>11 pro ma</t>
-  </si>
-  <si>
-    <t>11??????</t>
-  </si>
-  <si>
-    <t>5mil reais mesm</t>
-  </si>
-  <si>
-    <t>dela</t>
-  </si>
-  <si>
-    <t>8l</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 de graça que nem pra funcionar funciona"  (eu sou sulista também </t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 mas eu </t>
-  </si>
-  <si>
-    <t>11, mas vai tomar no cu, que celular tesão, bateria, processador, tela, o som é foda demai</t>
-  </si>
-  <si>
-    <t>71..</t>
-  </si>
-  <si>
-    <t>11 e achei a durabilidade da bateria melhor que do motorola, fora isso, a parte do preço eu concordo mto contigo hahah</t>
-  </si>
-  <si>
-    <t>3tv</t>
-  </si>
-  <si>
-    <t>11 qual o nome disso</t>
-  </si>
-  <si>
-    <t>5mil na blackfrida</t>
-  </si>
-  <si>
-    <t>4m</t>
-  </si>
-  <si>
-    <t>1 ano de uso vou ter que comprar um airpods_xD83D_</t>
-  </si>
-  <si>
-    <t>500 na mao do andryw 
-segundo el</t>
-  </si>
-  <si>
-    <t>5sxcaqhv</t>
-  </si>
-  <si>
-    <t>11 e tem pouca diferenç</t>
-  </si>
-  <si>
-    <t>11 achando q i</t>
-  </si>
-  <si>
-    <t>20 ultra.. _xD83E_</t>
-  </si>
-  <si>
-    <t>11 com o tanto de dinheiro q já gastei c carregado</t>
-  </si>
-  <si>
-    <t>8 plus 
-não adianta, a apple nos consom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 pro </t>
-  </si>
-  <si>
-    <t>11 roxo agor</t>
-  </si>
-  <si>
-    <t>11 a vista vcs teriam vergonha de puxar o dinheiro na hora de pagar? eu tenho uma amiga q passou por esse problema e nao entendi pq ela tava c vergonha disso _xD83E_</t>
-  </si>
-  <si>
-    <t>11 
-oste</t>
-  </si>
-  <si>
-    <t>11 e todo dia chega ifood...</t>
-  </si>
-  <si>
-    <t>11 ou xr vem tô emocionad</t>
-  </si>
-  <si>
-    <t>0 e fingiu q ia me dar pra me zoar, pra q inimigo</t>
-  </si>
-  <si>
-    <t>11 ainda n era a versão exata eu começo a passar ma</t>
-  </si>
-  <si>
-    <t>6m</t>
-  </si>
-  <si>
-    <t>11 básic</t>
-  </si>
-  <si>
-    <t>11 e</t>
-  </si>
-  <si>
-    <t>11 q tá tudo certo kkkkkkkkkkkkl</t>
-  </si>
-  <si>
-    <t>4e</t>
-  </si>
-  <si>
-    <t>6 cair kkkkk de q jeito eu vou ter celular bom kkk</t>
-  </si>
-  <si>
-    <t>7 plu</t>
-  </si>
-  <si>
-    <t>11 da chaeyoung pra gravar esses tiktok</t>
-  </si>
-  <si>
-    <t>11 né kkkkkkkkk eu viro a barbie em pesso</t>
-  </si>
-  <si>
-    <t>11 com o simb</t>
-  </si>
-  <si>
-    <t>2x</t>
-  </si>
-  <si>
-    <t>11, enfim a adoçã</t>
-  </si>
-  <si>
-    <t>5bno</t>
-  </si>
-  <si>
-    <t>11 roxo é lindo _xD83E_</t>
-  </si>
-  <si>
-    <t>41] fake boyfriend: você acabou de escolher a cor do meu novo iphone
-gooost</t>
-  </si>
-  <si>
-    <t>samsumg??</t>
-  </si>
-  <si>
-    <t>11 pelo menos uma vez na vida. 🗣🗣_xD83D_</t>
-  </si>
-  <si>
-    <t>11 pro chega</t>
-  </si>
-  <si>
-    <t>11 que e</t>
-  </si>
-  <si>
-    <t>11 vem caralhooo ehh reallll</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11 pois sabe </t>
-  </si>
-  <si>
-    <t>11 pq está n</t>
-  </si>
-  <si>
-    <t>11 no cartão do meu pai,</t>
   </si>
 </sst>
 </file>
@@ -1675,7 +1413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1691,6 +1429,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2031,13 +1772,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B301" sqref="B301"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="88.1796875" customWidth="1"/>
+    <col min="1" max="1" width="122.7265625" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2280,8 +2021,8 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -3360,23 +3101,23 @@
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B165" t="s">
-        <v>417</v>
+      <c r="B165" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B166" t="s">
-        <v>418</v>
+      <c r="B166" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3384,71 +3125,71 @@
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B168" t="s">
-        <v>419</v>
+      <c r="B168" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B169" t="s">
-        <v>420</v>
+      <c r="B169" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B170" t="s">
-        <v>421</v>
+      <c r="B170" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B171" t="s">
-        <v>422</v>
+      <c r="B171" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B172">
-        <v>6</v>
+      <c r="B172" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" t="s">
-        <v>423</v>
+      <c r="B173" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B174" t="s">
-        <v>424</v>
+      <c r="B174" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" t="s">
-        <v>425</v>
+      <c r="B175" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3456,140 +3197,143 @@
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B177" t="s">
-        <v>426</v>
+      <c r="B177" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>177</v>
       </c>
+      <c r="B178" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B179" t="s">
-        <v>427</v>
+      <c r="B179" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B180" t="s">
-        <v>428</v>
+      <c r="B180" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" t="s">
-        <v>429</v>
+      <c r="B181" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B182" t="s">
-        <v>430</v>
+      <c r="B182" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B183" t="s">
-        <v>431</v>
+      <c r="B183" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B184" t="s">
-        <v>432</v>
+      <c r="B184" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B185" t="s">
-        <v>433</v>
+      <c r="B185" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B186">
-        <v>11</v>
+      <c r="B186" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B187">
-        <v>1</v>
+      <c r="B187" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="B188" t="s">
-        <v>434</v>
+      <c r="B188" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="B189" t="s">
-        <v>435</v>
+      <c r="B189" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190">
-        <v>11</v>
+      <c r="B190" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="B191" t="s">
-        <v>436</v>
+      <c r="B191" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="B192" t="s">
-        <v>437</v>
+      <c r="B192" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="B193" t="s">
-        <v>438</v>
+      <c r="B193" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3597,7 +3341,7 @@
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3605,23 +3349,23 @@
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="B196" t="s">
-        <v>439</v>
+      <c r="B196" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="B197" t="s">
-        <v>440</v>
+      <c r="B197" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3629,91 +3373,103 @@
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="B199" t="s">
-        <v>441</v>
+      <c r="B199" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>199</v>
       </c>
+      <c r="B200" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="B201">
-        <v>11</v>
+      <c r="B201" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" t="s">
-        <v>416</v>
+      <c r="B202" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="B203" t="s">
-        <v>442</v>
+      <c r="B203" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="B204" t="s">
-        <v>443</v>
+      <c r="B204" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>204</v>
       </c>
+      <c r="B205" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="B206">
-        <v>1</v>
+      <c r="B206" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>206</v>
       </c>
+      <c r="B207" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" t="s">
-        <v>444</v>
+      <c r="B208" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="B209" t="s">
-        <v>445</v>
+      <c r="B209" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>209</v>
       </c>
+      <c r="B210" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3721,31 +3477,31 @@
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" t="s">
-        <v>446</v>
+      <c r="B212" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" t="s">
-        <v>447</v>
+      <c r="B213" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="B214" t="s">
-        <v>448</v>
+      <c r="B214" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3753,169 +3509,175 @@
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" t="s">
-        <v>449</v>
+      <c r="B216" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" t="s">
-        <v>450</v>
+      <c r="B217" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="B218" t="s">
-        <v>451</v>
+      <c r="B218" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B219" t="s">
-        <v>452</v>
+      <c r="B219" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B220" t="s">
-        <v>453</v>
+      <c r="B220" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="B221">
-        <v>11</v>
+      <c r="B221" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>221</v>
       </c>
+      <c r="B222" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" t="s">
-        <v>454</v>
+      <c r="B223" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="B224">
-        <v>1</v>
+      <c r="B224" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" t="s">
-        <v>455</v>
+      <c r="B225" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" t="s">
-        <v>456</v>
+      <c r="B226" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>226</v>
       </c>
+      <c r="B227" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="B228">
-        <v>11</v>
+      <c r="B228" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B229" t="s">
-        <v>457</v>
+      <c r="B229" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B230" t="s">
-        <v>458</v>
+      <c r="B230" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="B231" t="s">
-        <v>459</v>
+      <c r="B231" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="B232" t="s">
-        <v>460</v>
+      <c r="B232" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="B233">
-        <v>1</v>
+      <c r="B233" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="B234" t="s">
-        <v>461</v>
+      <c r="B234" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235">
-        <v>1</v>
+      <c r="B235" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="B236" t="s">
-        <v>462</v>
+      <c r="B236" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3923,23 +3685,23 @@
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238" t="s">
-        <v>463</v>
+      <c r="B238" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="B239" t="s">
-        <v>464</v>
+      <c r="B239" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="5">
         <v>1</v>
       </c>
     </row>
@@ -3947,182 +3709,191 @@
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" t="s">
-        <v>465</v>
+      <c r="B241" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" t="s">
-        <v>466</v>
+      <c r="B242" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243" t="s">
-        <v>467</v>
+      <c r="B243" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" t="s">
-        <v>468</v>
+      <c r="B244" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245" t="s">
-        <v>469</v>
+      <c r="B245" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>245</v>
       </c>
+      <c r="B246" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247">
-        <v>1</v>
+      <c r="B247" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="B248">
-        <v>2</v>
+      <c r="B248" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="B249" t="s">
-        <v>470</v>
+      <c r="B249" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250">
-        <v>1</v>
+      <c r="B250" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="B251" t="s">
-        <v>471</v>
+      <c r="B251" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="B252" t="s">
-        <v>472</v>
+      <c r="B252" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253" t="s">
-        <v>473</v>
+      <c r="B253" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="B254">
-        <v>1</v>
+      <c r="B254" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="B255" t="s">
-        <v>474</v>
+      <c r="B255" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256">
-        <v>11</v>
+      <c r="B256" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="B257">
-        <v>0.95833333333333337</v>
+      <c r="B257" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B258">
-        <v>1</v>
+      <c r="B258" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>258</v>
       </c>
+      <c r="B259" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="B260">
-        <v>6</v>
+      <c r="B260" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>260</v>
       </c>
+      <c r="B261" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" t="s">
-        <v>475</v>
+      <c r="B262" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="B263" t="s">
-        <v>476</v>
+      <c r="B263" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4130,156 +3901,159 @@
       <c r="A265" t="s">
         <v>264</v>
       </c>
+      <c r="B265" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="B266" t="s">
-        <v>477</v>
+      <c r="B266" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="B267" t="s">
-        <v>478</v>
+      <c r="B267" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="B268" t="s">
-        <v>479</v>
+      <c r="B268" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>268</v>
       </c>
-      <c r="B269" t="s">
-        <v>480</v>
+      <c r="B269" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>269</v>
       </c>
-      <c r="B270" t="s">
-        <v>481</v>
+      <c r="B270" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="B271" t="s">
-        <v>482</v>
+      <c r="B271" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>271</v>
       </c>
-      <c r="B272" t="s">
-        <v>483</v>
+      <c r="B272" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>272</v>
       </c>
-      <c r="B273" t="s">
-        <v>484</v>
+      <c r="B273" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="B274" t="s">
-        <v>485</v>
+      <c r="B274" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="B275" t="s">
-        <v>486</v>
+      <c r="B275" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="B276" t="s">
-        <v>487</v>
+      <c r="B276" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="B277" t="s">
-        <v>488</v>
+      <c r="B277" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>277</v>
       </c>
-      <c r="B278">
-        <v>11</v>
+      <c r="B278" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>278</v>
       </c>
-      <c r="B279" t="s">
-        <v>489</v>
+      <c r="B279" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="B280" t="s">
-        <v>490</v>
+      <c r="B280" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="B281" t="s">
-        <v>491</v>
+      <c r="B281" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>281</v>
       </c>
-      <c r="B282" t="s">
-        <v>492</v>
+      <c r="B282" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="B283" t="s">
-        <v>493</v>
+      <c r="B283" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4287,7 +4061,7 @@
       <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="5">
         <v>1</v>
       </c>
     </row>
@@ -4295,124 +4069,127 @@
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="B286" t="s">
-        <v>494</v>
+      <c r="B286" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>286</v>
       </c>
-      <c r="B287" t="s">
-        <v>495</v>
+      <c r="B287" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="B288" t="s">
-        <v>496</v>
+      <c r="B288" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="B289">
-        <v>1</v>
+      <c r="B289" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>289</v>
       </c>
+      <c r="B290" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="B291" t="s">
-        <v>415</v>
+      <c r="B291" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="B292" t="s">
-        <v>497</v>
+      <c r="B292" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>292</v>
       </c>
-      <c r="B293" t="s">
-        <v>498</v>
+      <c r="B293" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>293</v>
       </c>
-      <c r="B294">
-        <v>10</v>
+      <c r="B294" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="B295">
-        <v>1</v>
+      <c r="B295" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>295</v>
       </c>
-      <c r="B296">
-        <v>1</v>
+      <c r="B296" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>296</v>
       </c>
-      <c r="B297">
-        <v>11</v>
+      <c r="B297" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="B298" t="s">
-        <v>499</v>
+      <c r="B298" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>298</v>
       </c>
-      <c r="B299" t="s">
-        <v>500</v>
+      <c r="B299" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>299</v>
       </c>
-      <c r="B300">
-        <v>0</v>
+      <c r="B300" s="5">
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="5">
         <v>1</v>
       </c>
     </row>

--- a/IPhone 11.xlsx
+++ b/IPhone 11.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FE0362-91F6-4FD9-935A-6537EE2064E0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C288D-ECD3-403A-AFCA-DC8CFB1ADBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1372,18 +1372,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1424,12 +1418,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1772,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B301" sqref="B301"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="B164" sqref="B164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2021,8 +2017,8 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -2031,7 +2027,7 @@
       <c r="B31" s="3">
         <v>1</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" s="5"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
@@ -3093,15 +3089,15 @@
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="4">
-        <v>11</v>
+      <c r="B164" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>164</v>
       </c>
-      <c r="B165" s="5">
+      <c r="B165" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3109,7 +3105,7 @@
       <c r="A166" t="s">
         <v>165</v>
       </c>
-      <c r="B166" s="5">
+      <c r="B166" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3117,7 +3113,7 @@
       <c r="A167" t="s">
         <v>166</v>
       </c>
-      <c r="B167" s="5">
+      <c r="B167" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3125,7 +3121,7 @@
       <c r="A168" t="s">
         <v>167</v>
       </c>
-      <c r="B168" s="5">
+      <c r="B168" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3133,7 +3129,7 @@
       <c r="A169" t="s">
         <v>168</v>
       </c>
-      <c r="B169" s="5">
+      <c r="B169" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3141,7 +3137,7 @@
       <c r="A170" t="s">
         <v>169</v>
       </c>
-      <c r="B170" s="5">
+      <c r="B170" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3149,7 +3145,7 @@
       <c r="A171" t="s">
         <v>170</v>
       </c>
-      <c r="B171" s="5">
+      <c r="B171" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3157,7 +3153,7 @@
       <c r="A172" t="s">
         <v>171</v>
       </c>
-      <c r="B172" s="5">
+      <c r="B172" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3165,7 +3161,7 @@
       <c r="A173" t="s">
         <v>172</v>
       </c>
-      <c r="B173" s="5">
+      <c r="B173" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3173,7 +3169,7 @@
       <c r="A174" t="s">
         <v>173</v>
       </c>
-      <c r="B174" s="5">
+      <c r="B174" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3181,7 +3177,7 @@
       <c r="A175" t="s">
         <v>174</v>
       </c>
-      <c r="B175" s="5">
+      <c r="B175" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3189,7 +3185,7 @@
       <c r="A176" t="s">
         <v>175</v>
       </c>
-      <c r="B176" s="5">
+      <c r="B176" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3197,7 +3193,7 @@
       <c r="A177" t="s">
         <v>176</v>
       </c>
-      <c r="B177" s="5">
+      <c r="B177" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3205,7 +3201,7 @@
       <c r="A178" t="s">
         <v>177</v>
       </c>
-      <c r="B178" s="5">
+      <c r="B178" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3213,7 +3209,7 @@
       <c r="A179" t="s">
         <v>178</v>
       </c>
-      <c r="B179" s="5">
+      <c r="B179" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3221,7 +3217,7 @@
       <c r="A180" t="s">
         <v>179</v>
       </c>
-      <c r="B180" s="5">
+      <c r="B180" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3229,7 +3225,7 @@
       <c r="A181" t="s">
         <v>180</v>
       </c>
-      <c r="B181" s="5">
+      <c r="B181" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3237,7 +3233,7 @@
       <c r="A182" t="s">
         <v>181</v>
       </c>
-      <c r="B182" s="5">
+      <c r="B182" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3245,7 +3241,7 @@
       <c r="A183" t="s">
         <v>182</v>
       </c>
-      <c r="B183" s="5">
+      <c r="B183" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3253,7 +3249,7 @@
       <c r="A184" t="s">
         <v>183</v>
       </c>
-      <c r="B184" s="5">
+      <c r="B184" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3261,7 +3257,7 @@
       <c r="A185" t="s">
         <v>184</v>
       </c>
-      <c r="B185" s="5">
+      <c r="B185" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3269,7 +3265,7 @@
       <c r="A186" t="s">
         <v>185</v>
       </c>
-      <c r="B186" s="5">
+      <c r="B186" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3277,7 +3273,7 @@
       <c r="A187" t="s">
         <v>186</v>
       </c>
-      <c r="B187" s="5">
+      <c r="B187" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3285,7 +3281,7 @@
       <c r="A188" t="s">
         <v>187</v>
       </c>
-      <c r="B188" s="5">
+      <c r="B188" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3293,7 +3289,7 @@
       <c r="A189" t="s">
         <v>188</v>
       </c>
-      <c r="B189" s="5">
+      <c r="B189" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3301,7 +3297,7 @@
       <c r="A190" t="s">
         <v>189</v>
       </c>
-      <c r="B190" s="5">
+      <c r="B190" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3309,7 +3305,7 @@
       <c r="A191" t="s">
         <v>190</v>
       </c>
-      <c r="B191" s="5">
+      <c r="B191" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3317,7 +3313,7 @@
       <c r="A192" t="s">
         <v>191</v>
       </c>
-      <c r="B192" s="5">
+      <c r="B192" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3325,7 +3321,7 @@
       <c r="A193" t="s">
         <v>192</v>
       </c>
-      <c r="B193" s="5">
+      <c r="B193" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3333,7 +3329,7 @@
       <c r="A194" t="s">
         <v>193</v>
       </c>
-      <c r="B194" s="5">
+      <c r="B194" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3341,7 +3337,7 @@
       <c r="A195" t="s">
         <v>194</v>
       </c>
-      <c r="B195" s="5">
+      <c r="B195" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3349,7 +3345,7 @@
       <c r="A196" t="s">
         <v>195</v>
       </c>
-      <c r="B196" s="5">
+      <c r="B196" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3357,7 +3353,7 @@
       <c r="A197" t="s">
         <v>196</v>
       </c>
-      <c r="B197" s="5">
+      <c r="B197" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3365,7 +3361,7 @@
       <c r="A198" t="s">
         <v>197</v>
       </c>
-      <c r="B198" s="5">
+      <c r="B198" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3373,7 +3369,7 @@
       <c r="A199" t="s">
         <v>198</v>
       </c>
-      <c r="B199" s="5">
+      <c r="B199" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3381,7 +3377,7 @@
       <c r="A200" t="s">
         <v>199</v>
       </c>
-      <c r="B200" s="5">
+      <c r="B200" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3389,7 +3385,7 @@
       <c r="A201" t="s">
         <v>200</v>
       </c>
-      <c r="B201" s="5">
+      <c r="B201" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3397,7 +3393,7 @@
       <c r="A202" t="s">
         <v>201</v>
       </c>
-      <c r="B202" s="5">
+      <c r="B202" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3405,7 +3401,7 @@
       <c r="A203" t="s">
         <v>202</v>
       </c>
-      <c r="B203" s="5">
+      <c r="B203" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3413,7 +3409,7 @@
       <c r="A204" t="s">
         <v>203</v>
       </c>
-      <c r="B204" s="5">
+      <c r="B204" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3421,7 +3417,7 @@
       <c r="A205" t="s">
         <v>204</v>
       </c>
-      <c r="B205" s="5">
+      <c r="B205" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3429,7 +3425,7 @@
       <c r="A206" t="s">
         <v>205</v>
       </c>
-      <c r="B206" s="5">
+      <c r="B206" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3437,7 +3433,7 @@
       <c r="A207" t="s">
         <v>206</v>
       </c>
-      <c r="B207" s="5">
+      <c r="B207" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3445,7 +3441,7 @@
       <c r="A208" t="s">
         <v>207</v>
       </c>
-      <c r="B208" s="5">
+      <c r="B208" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3453,7 +3449,7 @@
       <c r="A209" t="s">
         <v>208</v>
       </c>
-      <c r="B209" s="5">
+      <c r="B209" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3461,7 +3457,7 @@
       <c r="A210" t="s">
         <v>209</v>
       </c>
-      <c r="B210" s="5">
+      <c r="B210" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3469,7 +3465,7 @@
       <c r="A211" t="s">
         <v>210</v>
       </c>
-      <c r="B211" s="5">
+      <c r="B211" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3477,7 +3473,7 @@
       <c r="A212" t="s">
         <v>211</v>
       </c>
-      <c r="B212" s="5">
+      <c r="B212" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3485,7 +3481,7 @@
       <c r="A213" t="s">
         <v>212</v>
       </c>
-      <c r="B213" s="5">
+      <c r="B213" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3493,7 +3489,7 @@
       <c r="A214" t="s">
         <v>213</v>
       </c>
-      <c r="B214" s="5">
+      <c r="B214" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3501,7 +3497,7 @@
       <c r="A215" t="s">
         <v>214</v>
       </c>
-      <c r="B215" s="5">
+      <c r="B215" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3509,7 +3505,7 @@
       <c r="A216" t="s">
         <v>215</v>
       </c>
-      <c r="B216" s="5">
+      <c r="B216" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3517,7 +3513,7 @@
       <c r="A217" t="s">
         <v>216</v>
       </c>
-      <c r="B217" s="5">
+      <c r="B217" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3525,7 +3521,7 @@
       <c r="A218" t="s">
         <v>217</v>
       </c>
-      <c r="B218" s="5">
+      <c r="B218" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3533,7 +3529,7 @@
       <c r="A219" t="s">
         <v>218</v>
       </c>
-      <c r="B219" s="5">
+      <c r="B219" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3541,7 +3537,7 @@
       <c r="A220" t="s">
         <v>219</v>
       </c>
-      <c r="B220" s="5">
+      <c r="B220" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3549,7 +3545,7 @@
       <c r="A221" t="s">
         <v>220</v>
       </c>
-      <c r="B221" s="5">
+      <c r="B221" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3557,7 +3553,7 @@
       <c r="A222" t="s">
         <v>221</v>
       </c>
-      <c r="B222" s="5">
+      <c r="B222" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3565,7 +3561,7 @@
       <c r="A223" t="s">
         <v>222</v>
       </c>
-      <c r="B223" s="5">
+      <c r="B223" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3573,7 +3569,7 @@
       <c r="A224" t="s">
         <v>223</v>
       </c>
-      <c r="B224" s="5">
+      <c r="B224" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3581,7 +3577,7 @@
       <c r="A225" t="s">
         <v>224</v>
       </c>
-      <c r="B225" s="5">
+      <c r="B225" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3589,7 +3585,7 @@
       <c r="A226" t="s">
         <v>225</v>
       </c>
-      <c r="B226" s="5">
+      <c r="B226" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3597,7 +3593,7 @@
       <c r="A227" t="s">
         <v>226</v>
       </c>
-      <c r="B227" s="5">
+      <c r="B227" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3605,7 +3601,7 @@
       <c r="A228" t="s">
         <v>227</v>
       </c>
-      <c r="B228" s="5">
+      <c r="B228" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3613,7 +3609,7 @@
       <c r="A229" t="s">
         <v>228</v>
       </c>
-      <c r="B229" s="5">
+      <c r="B229" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3621,7 +3617,7 @@
       <c r="A230" t="s">
         <v>229</v>
       </c>
-      <c r="B230" s="5">
+      <c r="B230" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3629,7 +3625,7 @@
       <c r="A231" t="s">
         <v>230</v>
       </c>
-      <c r="B231" s="5">
+      <c r="B231" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3637,7 +3633,7 @@
       <c r="A232" t="s">
         <v>231</v>
       </c>
-      <c r="B232" s="5">
+      <c r="B232" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3645,7 +3641,7 @@
       <c r="A233" t="s">
         <v>232</v>
       </c>
-      <c r="B233" s="5">
+      <c r="B233" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3653,7 +3649,7 @@
       <c r="A234" t="s">
         <v>233</v>
       </c>
-      <c r="B234" s="5">
+      <c r="B234" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3661,7 +3657,7 @@
       <c r="A235" t="s">
         <v>234</v>
       </c>
-      <c r="B235" s="5">
+      <c r="B235" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3669,7 +3665,7 @@
       <c r="A236" t="s">
         <v>235</v>
       </c>
-      <c r="B236" s="5">
+      <c r="B236" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3677,7 +3673,7 @@
       <c r="A237" t="s">
         <v>236</v>
       </c>
-      <c r="B237" s="5">
+      <c r="B237" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3685,7 +3681,7 @@
       <c r="A238" t="s">
         <v>237</v>
       </c>
-      <c r="B238" s="5">
+      <c r="B238" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3693,7 +3689,7 @@
       <c r="A239" t="s">
         <v>238</v>
       </c>
-      <c r="B239" s="5">
+      <c r="B239" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3701,7 +3697,7 @@
       <c r="A240" t="s">
         <v>239</v>
       </c>
-      <c r="B240" s="5">
+      <c r="B240" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3709,7 +3705,7 @@
       <c r="A241" t="s">
         <v>240</v>
       </c>
-      <c r="B241" s="5">
+      <c r="B241" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3717,7 +3713,7 @@
       <c r="A242" t="s">
         <v>241</v>
       </c>
-      <c r="B242" s="5">
+      <c r="B242" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3725,7 +3721,7 @@
       <c r="A243" t="s">
         <v>242</v>
       </c>
-      <c r="B243" s="5">
+      <c r="B243" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3733,7 +3729,7 @@
       <c r="A244" t="s">
         <v>243</v>
       </c>
-      <c r="B244" s="5">
+      <c r="B244" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3741,7 +3737,7 @@
       <c r="A245" t="s">
         <v>244</v>
       </c>
-      <c r="B245" s="5">
+      <c r="B245" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3749,7 +3745,7 @@
       <c r="A246" t="s">
         <v>245</v>
       </c>
-      <c r="B246" s="5">
+      <c r="B246" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3757,7 +3753,7 @@
       <c r="A247" t="s">
         <v>246</v>
       </c>
-      <c r="B247" s="5">
+      <c r="B247" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3765,7 +3761,7 @@
       <c r="A248" t="s">
         <v>247</v>
       </c>
-      <c r="B248" s="5">
+      <c r="B248" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3773,7 +3769,7 @@
       <c r="A249" t="s">
         <v>248</v>
       </c>
-      <c r="B249" s="5">
+      <c r="B249" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3781,7 +3777,7 @@
       <c r="A250" t="s">
         <v>249</v>
       </c>
-      <c r="B250" s="5">
+      <c r="B250" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3789,7 +3785,7 @@
       <c r="A251" t="s">
         <v>250</v>
       </c>
-      <c r="B251" s="5">
+      <c r="B251" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3797,7 +3793,7 @@
       <c r="A252" t="s">
         <v>251</v>
       </c>
-      <c r="B252" s="5">
+      <c r="B252" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3805,7 +3801,7 @@
       <c r="A253" t="s">
         <v>252</v>
       </c>
-      <c r="B253" s="5">
+      <c r="B253" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3813,7 +3809,7 @@
       <c r="A254" t="s">
         <v>253</v>
       </c>
-      <c r="B254" s="5">
+      <c r="B254" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3821,7 +3817,7 @@
       <c r="A255" t="s">
         <v>254</v>
       </c>
-      <c r="B255" s="5">
+      <c r="B255" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3829,7 +3825,7 @@
       <c r="A256" t="s">
         <v>255</v>
       </c>
-      <c r="B256" s="5">
+      <c r="B256" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3837,7 +3833,7 @@
       <c r="A257" t="s">
         <v>256</v>
       </c>
-      <c r="B257" s="5">
+      <c r="B257" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3845,7 +3841,7 @@
       <c r="A258" t="s">
         <v>257</v>
       </c>
-      <c r="B258" s="5">
+      <c r="B258" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3853,7 +3849,7 @@
       <c r="A259" t="s">
         <v>258</v>
       </c>
-      <c r="B259" s="5">
+      <c r="B259" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3861,7 +3857,7 @@
       <c r="A260" t="s">
         <v>259</v>
       </c>
-      <c r="B260" s="5">
+      <c r="B260" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3869,7 +3865,7 @@
       <c r="A261" t="s">
         <v>260</v>
       </c>
-      <c r="B261" s="5">
+      <c r="B261" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3877,7 +3873,7 @@
       <c r="A262" t="s">
         <v>261</v>
       </c>
-      <c r="B262" s="5">
+      <c r="B262" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3885,7 +3881,7 @@
       <c r="A263" t="s">
         <v>262</v>
       </c>
-      <c r="B263" s="5">
+      <c r="B263" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3893,7 +3889,7 @@
       <c r="A264" t="s">
         <v>263</v>
       </c>
-      <c r="B264" s="5">
+      <c r="B264" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3901,7 +3897,7 @@
       <c r="A265" t="s">
         <v>264</v>
       </c>
-      <c r="B265" s="5">
+      <c r="B265" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3909,7 +3905,7 @@
       <c r="A266" t="s">
         <v>265</v>
       </c>
-      <c r="B266" s="5">
+      <c r="B266" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3917,7 +3913,7 @@
       <c r="A267" t="s">
         <v>266</v>
       </c>
-      <c r="B267" s="5">
+      <c r="B267" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3925,7 +3921,7 @@
       <c r="A268" t="s">
         <v>267</v>
       </c>
-      <c r="B268" s="5">
+      <c r="B268" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3933,7 +3929,7 @@
       <c r="A269" t="s">
         <v>268</v>
       </c>
-      <c r="B269" s="5">
+      <c r="B269" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3941,7 +3937,7 @@
       <c r="A270" t="s">
         <v>269</v>
       </c>
-      <c r="B270" s="5">
+      <c r="B270" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3949,7 +3945,7 @@
       <c r="A271" t="s">
         <v>270</v>
       </c>
-      <c r="B271" s="5">
+      <c r="B271" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3957,7 +3953,7 @@
       <c r="A272" t="s">
         <v>271</v>
       </c>
-      <c r="B272" s="5">
+      <c r="B272" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3965,7 +3961,7 @@
       <c r="A273" t="s">
         <v>272</v>
       </c>
-      <c r="B273" s="5">
+      <c r="B273" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3973,7 +3969,7 @@
       <c r="A274" t="s">
         <v>273</v>
       </c>
-      <c r="B274" s="5">
+      <c r="B274" s="4">
         <v>0</v>
       </c>
     </row>
@@ -3981,7 +3977,7 @@
       <c r="A275" t="s">
         <v>274</v>
       </c>
-      <c r="B275" s="5">
+      <c r="B275" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3989,7 +3985,7 @@
       <c r="A276" t="s">
         <v>275</v>
       </c>
-      <c r="B276" s="5">
+      <c r="B276" s="4">
         <v>1</v>
       </c>
     </row>
@@ -3997,7 +3993,7 @@
       <c r="A277" t="s">
         <v>276</v>
       </c>
-      <c r="B277" s="5">
+      <c r="B277" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4005,7 +4001,7 @@
       <c r="A278" t="s">
         <v>277</v>
       </c>
-      <c r="B278" s="5">
+      <c r="B278" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4013,7 +4009,7 @@
       <c r="A279" t="s">
         <v>278</v>
       </c>
-      <c r="B279" s="5">
+      <c r="B279" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4021,7 +4017,7 @@
       <c r="A280" t="s">
         <v>279</v>
       </c>
-      <c r="B280" s="5">
+      <c r="B280" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4029,7 +4025,7 @@
       <c r="A281" t="s">
         <v>280</v>
       </c>
-      <c r="B281" s="5">
+      <c r="B281" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4037,7 +4033,7 @@
       <c r="A282" t="s">
         <v>281</v>
       </c>
-      <c r="B282" s="5">
+      <c r="B282" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4045,7 +4041,7 @@
       <c r="A283" t="s">
         <v>282</v>
       </c>
-      <c r="B283" s="5">
+      <c r="B283" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4053,7 +4049,7 @@
       <c r="A284" t="s">
         <v>283</v>
       </c>
-      <c r="B284" s="5">
+      <c r="B284" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4061,7 +4057,7 @@
       <c r="A285" t="s">
         <v>284</v>
       </c>
-      <c r="B285" s="5">
+      <c r="B285" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4069,7 +4065,7 @@
       <c r="A286" t="s">
         <v>285</v>
       </c>
-      <c r="B286" s="5">
+      <c r="B286" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4077,7 +4073,7 @@
       <c r="A287" t="s">
         <v>286</v>
       </c>
-      <c r="B287" s="5">
+      <c r="B287" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4085,7 +4081,7 @@
       <c r="A288" t="s">
         <v>287</v>
       </c>
-      <c r="B288" s="5">
+      <c r="B288" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4093,7 +4089,7 @@
       <c r="A289" t="s">
         <v>288</v>
       </c>
-      <c r="B289" s="5">
+      <c r="B289" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4101,7 +4097,7 @@
       <c r="A290" t="s">
         <v>289</v>
       </c>
-      <c r="B290" s="5">
+      <c r="B290" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4109,7 +4105,7 @@
       <c r="A291" t="s">
         <v>290</v>
       </c>
-      <c r="B291" s="5">
+      <c r="B291" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4117,7 +4113,7 @@
       <c r="A292" t="s">
         <v>291</v>
       </c>
-      <c r="B292" s="5">
+      <c r="B292" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4125,7 +4121,7 @@
       <c r="A293" t="s">
         <v>292</v>
       </c>
-      <c r="B293" s="5">
+      <c r="B293" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4133,7 +4129,7 @@
       <c r="A294" t="s">
         <v>293</v>
       </c>
-      <c r="B294" s="5">
+      <c r="B294" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4141,7 +4137,7 @@
       <c r="A295" t="s">
         <v>294</v>
       </c>
-      <c r="B295" s="5">
+      <c r="B295" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4149,7 +4145,7 @@
       <c r="A296" t="s">
         <v>295</v>
       </c>
-      <c r="B296" s="5">
+      <c r="B296" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4157,7 +4153,7 @@
       <c r="A297" t="s">
         <v>296</v>
       </c>
-      <c r="B297" s="5">
+      <c r="B297" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4165,7 +4161,7 @@
       <c r="A298" t="s">
         <v>297</v>
       </c>
-      <c r="B298" s="5">
+      <c r="B298" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4173,7 +4169,7 @@
       <c r="A299" t="s">
         <v>298</v>
       </c>
-      <c r="B299" s="5">
+      <c r="B299" s="4">
         <v>0</v>
       </c>
     </row>
@@ -4181,7 +4177,7 @@
       <c r="A300" t="s">
         <v>299</v>
       </c>
-      <c r="B300" s="5">
+      <c r="B300" s="4">
         <v>1</v>
       </c>
     </row>
@@ -4189,7 +4185,7 @@
       <c r="A301" t="s">
         <v>300</v>
       </c>
-      <c r="B301" s="5">
+      <c r="B301" s="4">
         <v>1</v>
       </c>
     </row>

--- a/IPhone 11.xlsx
+++ b/IPhone 11.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468C288D-ECD3-403A-AFCA-DC8CFB1ADBBD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EE3016-F79B-4E69-9D78-69987A6AD95D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="415">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1422,10 +1422,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1443,6 +1443,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="1025" name="avatar">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B897720-148C-4078-A4BC-772D30E1AEF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10363200" y="1841500"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1768,8 +1821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="B164" sqref="B164"/>
+    <sheetView topLeftCell="A289" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2017,8 +2070,8 @@
       <c r="B30" s="3">
         <v>0</v>
       </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
@@ -3089,7 +3142,7 @@
       <c r="A164" t="s">
         <v>163</v>
       </c>
-      <c r="B164" s="7">
+      <c r="B164" s="6">
         <v>0</v>
       </c>
     </row>
@@ -4200,578 +4253,923 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:A113"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="59.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>360</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>362</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B77">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>380</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="B112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>413</v>
       </c>
+      <c r="B113">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>